--- a/excel/exported/temporaries.xlsx
+++ b/excel/exported/temporaries.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="58">
   <si>
     <t>66666</t>
   </si>
@@ -136,6 +136,57 @@
   </si>
   <si>
     <t>2021-05-10 07:20:40.0000000</t>
+  </si>
+  <si>
+    <t>5301</t>
+  </si>
+  <si>
+    <t>2022-06-06 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:41.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:43.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:44.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:45.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:47.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:48.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:49.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-06 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:53.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-05 13:28:54.0000000</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>2020-06-16 00:00:00.0000000</t>
+  </si>
+  <si>
+    <t>2021-06-18 08:38:29.0000000</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>2021-06-18 08:42:12.0000000</t>
   </si>
 </sst>
 </file>
@@ -179,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K93"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2527,6 +2578,916 @@
         <v>40</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68">
+        <v>10014</v>
+      </c>
+      <c r="B68">
+        <v>3144</v>
+      </c>
+      <c r="C68">
+        <v>3324</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68">
+        <v>28</v>
+      </c>
+      <c r="F68">
+        <v>93</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68">
+        <v>2304.5</v>
+      </c>
+      <c r="I68">
+        <v>2211.5</v>
+      </c>
+      <c r="J68" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>10015</v>
+      </c>
+      <c r="B69">
+        <v>3144</v>
+      </c>
+      <c r="C69">
+        <v>3324</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>93</v>
+      </c>
+      <c r="G69" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69">
+        <v>2304.5</v>
+      </c>
+      <c r="I69">
+        <v>2211.5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>10016</v>
+      </c>
+      <c r="B70">
+        <v>3144</v>
+      </c>
+      <c r="C70">
+        <v>3324</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>28</v>
+      </c>
+      <c r="F70">
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>42</v>
+      </c>
+      <c r="H70">
+        <v>2304.5</v>
+      </c>
+      <c r="I70">
+        <v>2211.5</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>10017</v>
+      </c>
+      <c r="B71">
+        <v>3144</v>
+      </c>
+      <c r="C71">
+        <v>3324</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71">
+        <v>28</v>
+      </c>
+      <c r="F71">
+        <v>93</v>
+      </c>
+      <c r="G71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71">
+        <v>2304.5</v>
+      </c>
+      <c r="I71">
+        <v>2211.5</v>
+      </c>
+      <c r="J71" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>10018</v>
+      </c>
+      <c r="B72">
+        <v>3144</v>
+      </c>
+      <c r="C72">
+        <v>3324</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72">
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72">
+        <v>2304.5</v>
+      </c>
+      <c r="I72">
+        <v>2211.5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>10019</v>
+      </c>
+      <c r="B73">
+        <v>3144</v>
+      </c>
+      <c r="C73">
+        <v>3324</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73">
+        <v>2304.5</v>
+      </c>
+      <c r="I73">
+        <v>2211.5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>10020</v>
+      </c>
+      <c r="B74">
+        <v>3144</v>
+      </c>
+      <c r="C74">
+        <v>3324</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74">
+        <v>28</v>
+      </c>
+      <c r="F74">
+        <v>93</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74">
+        <v>2304.5</v>
+      </c>
+      <c r="I74">
+        <v>2211.5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>10021</v>
+      </c>
+      <c r="B75">
+        <v>3144</v>
+      </c>
+      <c r="C75">
+        <v>3324</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75">
+        <v>28</v>
+      </c>
+      <c r="F75">
+        <v>93</v>
+      </c>
+      <c r="G75" t="s">
+        <v>42</v>
+      </c>
+      <c r="H75">
+        <v>2304.5</v>
+      </c>
+      <c r="I75">
+        <v>2211.5</v>
+      </c>
+      <c r="J75" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>10022</v>
+      </c>
+      <c r="B76">
+        <v>3144</v>
+      </c>
+      <c r="C76">
+        <v>3324</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <v>28</v>
+      </c>
+      <c r="F76">
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76">
+        <v>2304.5</v>
+      </c>
+      <c r="I76">
+        <v>2211.5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>10023</v>
+      </c>
+      <c r="B77">
+        <v>3144</v>
+      </c>
+      <c r="C77">
+        <v>3324</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77">
+        <v>28</v>
+      </c>
+      <c r="F77">
+        <v>93</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77">
+        <v>2304.5</v>
+      </c>
+      <c r="I77">
+        <v>2211.5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>10024</v>
+      </c>
+      <c r="B78">
+        <v>3144</v>
+      </c>
+      <c r="C78">
+        <v>3324</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78">
+        <v>28</v>
+      </c>
+      <c r="F78">
+        <v>93</v>
+      </c>
+      <c r="G78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78">
+        <v>2304.5</v>
+      </c>
+      <c r="I78">
+        <v>2211.5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>10025</v>
+      </c>
+      <c r="B79">
+        <v>3144</v>
+      </c>
+      <c r="C79">
+        <v>3324</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79">
+        <v>28</v>
+      </c>
+      <c r="F79">
+        <v>93</v>
+      </c>
+      <c r="G79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79">
+        <v>2304.5</v>
+      </c>
+      <c r="I79">
+        <v>2211.5</v>
+      </c>
+      <c r="J79" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>10026</v>
+      </c>
+      <c r="B80">
+        <v>3144</v>
+      </c>
+      <c r="C80">
+        <v>3324</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80">
+        <v>28</v>
+      </c>
+      <c r="F80">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80">
+        <v>2304.5</v>
+      </c>
+      <c r="I80">
+        <v>2211.5</v>
+      </c>
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>10027</v>
+      </c>
+      <c r="B81">
+        <v>3144</v>
+      </c>
+      <c r="C81">
+        <v>3324</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81">
+        <v>28</v>
+      </c>
+      <c r="F81">
+        <v>93</v>
+      </c>
+      <c r="G81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81">
+        <v>2304.5</v>
+      </c>
+      <c r="I81">
+        <v>2211.5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>10028</v>
+      </c>
+      <c r="B82">
+        <v>3144</v>
+      </c>
+      <c r="C82">
+        <v>3324</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82">
+        <v>28</v>
+      </c>
+      <c r="F82">
+        <v>93</v>
+      </c>
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82">
+        <v>2304.5</v>
+      </c>
+      <c r="I82">
+        <v>2211.5</v>
+      </c>
+      <c r="J82" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>10029</v>
+      </c>
+      <c r="B83">
+        <v>3144</v>
+      </c>
+      <c r="C83">
+        <v>3324</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83">
+        <v>28</v>
+      </c>
+      <c r="F83">
+        <v>93</v>
+      </c>
+      <c r="G83" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83">
+        <v>2304.5</v>
+      </c>
+      <c r="I83">
+        <v>2211.5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>10030</v>
+      </c>
+      <c r="B84">
+        <v>3144</v>
+      </c>
+      <c r="C84">
+        <v>3324</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84">
+        <v>28</v>
+      </c>
+      <c r="F84">
+        <v>93</v>
+      </c>
+      <c r="G84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H84">
+        <v>2304.5</v>
+      </c>
+      <c r="I84">
+        <v>2211.5</v>
+      </c>
+      <c r="J84" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>10031</v>
+      </c>
+      <c r="B85">
+        <v>3144</v>
+      </c>
+      <c r="C85">
+        <v>3324</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85">
+        <v>28</v>
+      </c>
+      <c r="F85">
+        <v>93</v>
+      </c>
+      <c r="G85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H85">
+        <v>2304.5</v>
+      </c>
+      <c r="I85">
+        <v>2211.5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>10032</v>
+      </c>
+      <c r="B86">
+        <v>3144</v>
+      </c>
+      <c r="C86">
+        <v>3324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86">
+        <v>28</v>
+      </c>
+      <c r="F86">
+        <v>93</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86">
+        <v>2304.5</v>
+      </c>
+      <c r="I86">
+        <v>2211.5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>10033</v>
+      </c>
+      <c r="B87">
+        <v>3144</v>
+      </c>
+      <c r="C87">
+        <v>3324</v>
+      </c>
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87">
+        <v>28</v>
+      </c>
+      <c r="F87">
+        <v>93</v>
+      </c>
+      <c r="G87" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87">
+        <v>2304.5</v>
+      </c>
+      <c r="I87">
+        <v>2211.5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>10034</v>
+      </c>
+      <c r="B88">
+        <v>3144</v>
+      </c>
+      <c r="C88">
+        <v>3324</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88">
+        <v>28</v>
+      </c>
+      <c r="F88">
+        <v>93</v>
+      </c>
+      <c r="G88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88">
+        <v>2304.5</v>
+      </c>
+      <c r="I88">
+        <v>2211.5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>51</v>
+      </c>
+      <c r="K88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>10035</v>
+      </c>
+      <c r="B89">
+        <v>3144</v>
+      </c>
+      <c r="C89">
+        <v>3324</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89">
+        <v>28</v>
+      </c>
+      <c r="F89">
+        <v>93</v>
+      </c>
+      <c r="G89" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>2304.5</v>
+      </c>
+      <c r="I89">
+        <v>2211.5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>10036</v>
+      </c>
+      <c r="B90">
+        <v>3144</v>
+      </c>
+      <c r="C90">
+        <v>3324</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90">
+        <v>28</v>
+      </c>
+      <c r="F90">
+        <v>93</v>
+      </c>
+      <c r="G90" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>2304.5</v>
+      </c>
+      <c r="I90">
+        <v>2211.5</v>
+      </c>
+      <c r="J90" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>10037</v>
+      </c>
+      <c r="B91">
+        <v>3144</v>
+      </c>
+      <c r="C91">
+        <v>3324</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91">
+        <v>28</v>
+      </c>
+      <c r="F91">
+        <v>93</v>
+      </c>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91">
+        <v>2304.5</v>
+      </c>
+      <c r="I91">
+        <v>2211.5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>10969</v>
+      </c>
+      <c r="B92">
+        <v>3249</v>
+      </c>
+      <c r="C92">
+        <v>3000</v>
+      </c>
+      <c r="D92" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92">
+        <v>28</v>
+      </c>
+      <c r="F92">
+        <v>137</v>
+      </c>
+      <c r="G92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92">
+        <v>2473</v>
+      </c>
+      <c r="I92">
+        <v>2336</v>
+      </c>
+      <c r="J92" t="s">
+        <v>55</v>
+      </c>
+      <c r="K92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>10970</v>
+      </c>
+      <c r="B93">
+        <v>3259</v>
+      </c>
+      <c r="C93">
+        <v>3400</v>
+      </c>
+      <c r="D93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93">
+        <v>28</v>
+      </c>
+      <c r="F93">
+        <v>123.5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93">
+        <v>2498.5</v>
+      </c>
+      <c r="I93">
+        <v>2375</v>
+      </c>
+      <c r="J93" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>